--- a/individual_results/avey/377.xlsx
+++ b/individual_results/avey/377.xlsx
@@ -579,10 +579,10 @@
         <v>0.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0.3333333333333333</v>
@@ -652,10 +652,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0.5</v>
@@ -722,12 +722,8 @@
       <c r="J4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>0.4</v>
       </c>
@@ -787,12 +783,8 @@
       <c r="J5" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9090909090909091</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>0.4545454545454545</v>
       </c>
@@ -855,10 +847,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23935198569284</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0.41311732856428</v>
@@ -928,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -1001,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -1074,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -1142,12 +1134,8 @@
       <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>3</v>
       </c>
